--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1863094.129402506</v>
+        <v>1967273.763853579</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>23.46591175453253</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>186.8460807091488</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>30.66278316902655</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>224.2131267027227</v>
+        <v>61.31988685654751</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>138.3467445476595</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>77.89902310465042</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>286.4219379548101</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>300.9488292209689</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>158.759400274306</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>3.672065161942219</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="V16" t="n">
-        <v>192.5100480735121</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.9868265178721</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>156.523885790703</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>77.12517954596483</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>171.5573199799892</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>100.0416311957212</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>55.83068150864332</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>46.35517081455656</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>5.42162358678387</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>76.28317487965055</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.4286493356916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>41.02686156550228</v>
+        <v>158.2247274633615</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>60.78102717027874</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.11729550773637</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>20.38427178197973</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.539111149739</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C2" t="n">
-        <v>1250.836169983545</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213861</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1393.039082990831</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,10 +4649,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.7269654071711</v>
+        <v>2015.813276953716</v>
       </c>
       <c r="C7" t="n">
-        <v>459.7907824792642</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="D7" t="n">
-        <v>459.7907824792642</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="E7" t="n">
-        <v>459.7907824792642</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="F7" t="n">
-        <v>312.9008349813538</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G7" t="n">
-        <v>145.1979983560728</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H7" t="n">
-        <v>145.1979983560728</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278958</v>
+        <v>2243.802827851734</v>
       </c>
       <c r="X7" t="n">
-        <v>1031.168009380941</v>
+        <v>2015.813276953716</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.3754302374108</v>
+        <v>2015.813276953716</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.82957821044</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.867061270028</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.601362663278</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>766.8131100650335</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>355.8272052754259</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250373</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2266.429418274562</v>
+        <v>1600.49865915052</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622424</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343355</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T10" t="n">
-        <v>1766.931517508386</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U10" t="n">
-        <v>1477.828650634029</v>
+        <v>2946.672497492342</v>
       </c>
       <c r="V10" t="n">
-        <v>1477.828650634029</v>
+        <v>2691.988009286456</v>
       </c>
       <c r="W10" t="n">
-        <v>1477.828650634029</v>
+        <v>2402.570839249495</v>
       </c>
       <c r="X10" t="n">
-        <v>1249.839099736012</v>
+        <v>2174.581288351477</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.046520592482</v>
+        <v>2170.872131622243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.1291986799072</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V16" t="n">
-        <v>1560.976963588655</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1271.559793551694</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>1043.570242653677</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.7776635101469</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
@@ -5607,7 +5609,7 @@
         <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1888.077129657224</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2311.700279152292</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2273.672861378251</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1984.597634722449</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.913146516562</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.495976479601</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2345.91093085731</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2126.309465880251</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.309465880251</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,16 +6548,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2333.093974969474</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6743,7 +6745,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6788,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3091.514342801869</v>
+        <v>733.4550657171255</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801869</v>
+        <v>564.5188827892187</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.397703389533</v>
+        <v>414.4022433768829</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.48460980714</v>
+        <v>266.4891497944898</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.59466230923</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.39856302411</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296632</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822171</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>4546.733736651347</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>4327.132271674289</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="U34" t="n">
-        <v>4038.057045018486</v>
+        <v>1907.98731883176</v>
       </c>
       <c r="V34" t="n">
-        <v>3783.3725568126</v>
+        <v>1653.302830625873</v>
       </c>
       <c r="W34" t="n">
-        <v>3493.955386775639</v>
+        <v>1363.885660588913</v>
       </c>
       <c r="X34" t="n">
-        <v>3493.955386775639</v>
+        <v>1135.896109690895</v>
       </c>
       <c r="Y34" t="n">
-        <v>3273.162807632109</v>
+        <v>915.1035305473653</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.6145409888043</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2104.285292201466</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1815.210065545664</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1560.525577339777</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>155.2116399876474</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2386.238542663355</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2203.383708318259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="V16" t="n">
-        <v>59.62759525031589</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.845153664065208</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>129.6605885985411</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>148.5844758430723</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>45.84813034729905</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>80.98465480592338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>230.6923168279477</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>134.671115187088</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>139.9994244361474</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>104.743111121994</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>176.378588761786</v>
+        <v>59.1807228639268</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>20.48480914828679</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.257951202385321</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>265.8002026072644</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747526</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,7 +26432,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26451,7 +26453,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954133.3463021691</v>
+        <v>-954133.346302169</v>
       </c>
       <c r="C6" t="n">
+        <v>374611.3994254232</v>
+      </c>
+      <c r="D6" t="n">
         <v>374611.3994254235</v>
       </c>
-      <c r="D6" t="n">
-        <v>374611.3994254234</v>
-      </c>
       <c r="E6" t="n">
-        <v>125470.7640049121</v>
+        <v>125470.7640049116</v>
       </c>
       <c r="F6" t="n">
-        <v>450883.2258122668</v>
+        <v>450883.2258122672</v>
       </c>
       <c r="G6" t="n">
         <v>450883.2258122668</v>
       </c>
       <c r="H6" t="n">
+        <v>450883.2258122669</v>
+      </c>
+      <c r="I6" t="n">
+        <v>450883.2258122672</v>
+      </c>
+      <c r="J6" t="n">
+        <v>233352.0234149894</v>
+      </c>
+      <c r="K6" t="n">
         <v>450883.225812267</v>
       </c>
-      <c r="I6" t="n">
-        <v>450883.2258122666</v>
-      </c>
-      <c r="J6" t="n">
-        <v>233352.0234149895</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>450883.2258122669</v>
       </c>
-      <c r="L6" t="n">
-        <v>450883.2258122668</v>
-      </c>
       <c r="M6" t="n">
-        <v>365828.1978767551</v>
+        <v>365828.1978767549</v>
       </c>
       <c r="N6" t="n">
-        <v>450883.2258122668</v>
+        <v>450883.225812267</v>
       </c>
       <c r="O6" t="n">
-        <v>450883.2258122668</v>
+        <v>450883.225812267</v>
       </c>
       <c r="P6" t="n">
-        <v>450883.2258122669</v>
+        <v>450883.225812267</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>341.806980016475</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>17.07188943047137</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>221.4748601548015</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>145.5179739757464</v>
+        <v>308.4112138219215</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>28.90007655096835</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>18.45339730518766</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>124.4997876986434</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>85.2891094350847</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>60.78954900186321</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>214.9125881901526</v>
       </c>
     </row>
     <row r="11">
@@ -29749,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29943,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>230.1272937575235</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>316.0872899694776</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>307.465452939363</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>353.130074847795</v>
+        <v>332.9841464938401</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>316.6133175811567</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>346.7710205055867</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33202,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33266,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>471.1883883160951</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P36" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,28 +33973,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34147,13 +34149,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>161.7871425275306</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>98.78558167419021</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>219.1556674334648</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>206.7892464195652</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36914,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>328.5921438716507</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37232,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191269</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37239,7 +37241,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060409</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P36" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,28 +37621,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37795,13 +37797,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,22 +38095,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967273.763853579</v>
+        <v>1963261.153839585</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>293.9779404656202</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>186.8460807091488</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>30.66278316902655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>137.903862626895</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>61.31988685654751</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C7" t="n">
-        <v>138.3467445476595</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>150.1095340224424</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.9488292209689</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.98153210089518</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.672065161942219</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>114.720561100775</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>123.9815576456784</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>113.9549918517058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>156.523885790703</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>77.12517954596483</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>62.6472505928856</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>55.83068150864332</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>46.35517081455656</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.42162358678387</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
-        <v>158.2247274633615</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>60.78102717027874</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1643.543434242328</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.580917301916</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>1457.817288823006</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>1072.029036224761</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>661.0431314351538</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3026.581738278539</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2773.051261552376</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2773.051261552376</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2420.282606282261</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X2" t="n">
-        <v>2420.282606282261</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y2" t="n">
-        <v>2030.14327430645</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V4" t="n">
-        <v>1393.039082990831</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W4" t="n">
-        <v>1103.62191295387</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X4" t="n">
-        <v>1103.62191295387</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1775.921253518047</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1417.655554911296</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1031.867302313052</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>620.8813975234445</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>205.808947368441</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2015.813276953716</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>2533.219997888694</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>2533.219997888694</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>2243.802827851734</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>2015.813276953716</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>2015.813276953716</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.898819086399</v>
+        <v>2085.807325826218</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1716.844808885807</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1358.579110279056</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>972.790857680812</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="Y8" t="n">
-        <v>1600.49865915052</v>
+        <v>2472.40716589034</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2170.872131622243</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C10" t="n">
-        <v>2170.872131622243</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D10" t="n">
-        <v>2170.872131622243</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E10" t="n">
-        <v>2022.95903803985</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F10" t="n">
-        <v>1876.069090541939</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>2946.672497492342</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>2691.988009286456</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>2402.570839249495</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X10" t="n">
-        <v>2174.581288351477</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y10" t="n">
-        <v>2170.872131622243</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803938</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576786</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597682</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>219.0505596597682</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5278,28 +5278,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111704</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900021</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>593.6115863900021</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>445.698492807609</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>298.8085453096986</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>298.8085453096986</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0967141518967</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6548,16 +6548,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.093974969474</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2113.492509992416</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1824.417283336614</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.732795130727</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.315625093766</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171255</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768829</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944898</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6873,37 +6873,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487563</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.98731883176</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588913</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.896109690895</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473653</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2104.285292201466</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1815.210065545664</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.525577339777</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.108407302817</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1271.108407302817</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>741.8431516380886</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>591.7265122257528</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="E43" t="n">
-        <v>443.8134186433597</v>
+        <v>599.4453682035411</v>
       </c>
       <c r="F43" t="n">
-        <v>296.9234711454493</v>
+        <v>452.5554207056307</v>
       </c>
       <c r="G43" t="n">
-        <v>296.9234711454493</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>155.2116399876474</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>31.71340154579414</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16.31315520054551</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>129.6605885985411</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>148.5844758430723</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>18.61858572567992</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>230.6923168279477</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>134.671115187088</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>139.9994244361474</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
-        <v>59.1807228639268</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>31.93331737597606</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48480914828679</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859702.8089747526</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26453,7 +26453,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-954133.346302169</v>
       </c>
       <c r="C6" t="n">
-        <v>374611.3994254232</v>
+        <v>374611.3994254235</v>
       </c>
       <c r="D6" t="n">
-        <v>374611.3994254235</v>
+        <v>374611.3994254236</v>
       </c>
       <c r="E6" t="n">
-        <v>125470.7640049116</v>
+        <v>125123.3847505547</v>
       </c>
       <c r="F6" t="n">
-        <v>450883.2258122672</v>
+        <v>450535.8465579098</v>
       </c>
       <c r="G6" t="n">
-        <v>450883.2258122668</v>
+        <v>450535.8465579099</v>
       </c>
       <c r="H6" t="n">
-        <v>450883.2258122669</v>
+        <v>450535.8465579099</v>
       </c>
       <c r="I6" t="n">
-        <v>450883.2258122672</v>
+        <v>450535.84655791</v>
       </c>
       <c r="J6" t="n">
-        <v>233352.0234149894</v>
+        <v>233004.6441606325</v>
       </c>
       <c r="K6" t="n">
-        <v>450883.225812267</v>
+        <v>450535.84655791</v>
       </c>
       <c r="L6" t="n">
-        <v>450883.2258122669</v>
+        <v>450535.84655791</v>
       </c>
       <c r="M6" t="n">
-        <v>365828.1978767549</v>
+        <v>365480.8186223981</v>
       </c>
       <c r="N6" t="n">
-        <v>450883.225812267</v>
+        <v>450535.8465579097</v>
       </c>
       <c r="O6" t="n">
-        <v>450883.225812267</v>
+        <v>450535.8465579102</v>
       </c>
       <c r="P6" t="n">
-        <v>450883.225812267</v>
+        <v>450535.8465579101</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>116.9437851878333</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.07188943047137</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>221.4748601548015</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>156.7039017604254</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>308.4112138219215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C7" t="n">
-        <v>28.90007655096835</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>256.766511719269</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>85.2891094350847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.04427615813304</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.9125881901526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>538.5853835133125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>307.465452939363</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>316.6133175811567</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>471.1883883160951</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>536.8001439125376</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>161.7871425275306</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,19 +35728,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>396.4513495912942</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>174.4792836591383</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>328.5921438716507</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37241,7 +37241,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060409</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>394.6661099905193</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>23.94570355317166</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1963261.153839585</v>
+        <v>1965021.684142371</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>293.9779404656202</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>85.09628919973935</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376562</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>137.903862626895</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.33835225137439</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>150.1095340224424</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.98153210089518</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519785</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>114.720561100775</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>1.799772605716168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>150.3341561773503</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578129</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>133.5908209162928</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>77.93612009725527</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2185.045504370168</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1816.082987429756</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1457.817288823006</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1072.029036224761</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>661.0431314351538</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y2" t="n">
-        <v>2571.64534443429</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4400,13 +4400,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1751.913851851648</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1530.147236421175</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>986.3598813409312</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>794.2683884856252</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>566.2788375876079</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>345.4862584440777</v>
       </c>
     </row>
     <row r="5">
@@ -4546,22 +4546,22 @@
         <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1775.921253518047</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1417.655554911296</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1031.867302313052</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>620.8813975234445</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>205.808947368441</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4570,7 +4570,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2085.807325826218</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1716.844808885807</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1358.579110279056</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>972.790857680812</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866152</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.40716589034</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>584.1404152085552</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>434.0237757962194</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>286.1106822138263</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>139.2207347159159</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5467179762944</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6105350483875</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>665.4938956360518</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1166.195182806534</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,55 +5740,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6244,31 +6244,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7326,37 +7326,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>599.4453682035411</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>452.5554207056307</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>481.447947124485</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>314.251847839365</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>172.5400166815631</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.5956654067394</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>31.71340154579414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>75.3754992116869</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253405</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.9259388694754023</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>3.329716221310264</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
         <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26435,13 +26435,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26453,7 +26453,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954133.346302169</v>
+        <v>-954133.3463021691</v>
       </c>
       <c r="C6" t="n">
         <v>374611.3994254235</v>
       </c>
       <c r="D6" t="n">
-        <v>374611.3994254236</v>
+        <v>374611.3994254234</v>
       </c>
       <c r="E6" t="n">
-        <v>125123.3847505547</v>
+        <v>125436.0260794755</v>
       </c>
       <c r="F6" t="n">
-        <v>450535.8465579098</v>
+        <v>450848.4878868315</v>
       </c>
       <c r="G6" t="n">
-        <v>450535.8465579099</v>
+        <v>450848.4878868316</v>
       </c>
       <c r="H6" t="n">
-        <v>450535.8465579099</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="I6" t="n">
-        <v>450535.84655791</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="J6" t="n">
-        <v>233004.6441606325</v>
+        <v>233317.2854895537</v>
       </c>
       <c r="K6" t="n">
-        <v>450535.84655791</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="L6" t="n">
-        <v>450535.84655791</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="M6" t="n">
-        <v>365480.8186223981</v>
+        <v>365793.4599513194</v>
       </c>
       <c r="N6" t="n">
-        <v>450535.8465579097</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="O6" t="n">
-        <v>450535.8465579102</v>
+        <v>450848.4878868312</v>
       </c>
       <c r="P6" t="n">
-        <v>450535.8465579101</v>
+        <v>450848.4878868314</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>116.9437851878333</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>201.4267091368517</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333513</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>156.7039017604254</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>238.7992910724536</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>256.766511719269</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.04427615813304</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795433981</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
